--- a/Joetz/Joetz/App_Data/uploads/Map1.xlsx
+++ b/Joetz/Joetz/App_Data/uploads/Map1.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -339,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -395,6 +398,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>123456778</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>332332</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>9031</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
